--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-023 Entrega de insumos.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-023 Entrega de insumos.xlsx
@@ -715,7 +715,7 @@
     <xdr:ext cx="504825" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -743,7 +743,7 @@
     <xdr:ext cx="847725" cy="657225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -771,7 +771,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -959,7 +959,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="F19" s="36"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="37" t="s">
         <v>16</v>
       </c>
@@ -993,7 +993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="41" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2003,7 @@
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
